--- a/cam/LED-zero-SHIM_2021-05-13-PnP.xlsx
+++ b/cam/LED-zero-SHIM_2021-05-13-PnP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG\Documents\EAGLE\projects\LED-SHIM\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D50CC7D-3BAE-4CD7-A377-593DB9DDC6E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E7DDE7-873F-406B-959C-B93345F94811}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="16430" windowHeight="19950" xr2:uid="{DDFE0140-7210-4258-AF71-E120049A60E5}"/>
+    <workbookView xWindow="10060" yWindow="530" windowWidth="16430" windowHeight="19950" xr2:uid="{DDFE0140-7210-4258-AF71-E120049A60E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -901,7 +901,7 @@
   <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3475,7 +3475,7 @@
         <v>155</v>
       </c>
       <c r="E151">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
